--- a/data/trans_dic/P3A_R1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R1-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.2049509649584015</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2348525814687515</v>
+        <v>0.2348525814687516</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1313481780460026</v>
+        <v>0.128785504352277</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2215741026409414</v>
+        <v>0.2217787920802756</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2443488690428132</v>
+        <v>0.24178752329818</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2207321984892871</v>
+        <v>0.2213705238431426</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09010044058887115</v>
+        <v>0.09056639005336607</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09712970886790687</v>
+        <v>0.09550702493153673</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1117103760547969</v>
+        <v>0.1079831188636496</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1918563278726023</v>
+        <v>0.1913778539781446</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1173123154768575</v>
+        <v>0.1186111750854102</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1671915373736231</v>
+        <v>0.167234785969457</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1830511178091368</v>
+        <v>0.1814260228813098</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2144666854600569</v>
+        <v>0.2128016247750082</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1855274214812893</v>
+        <v>0.1849379539363079</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2891526642428493</v>
+        <v>0.2871319467784718</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3126643257117003</v>
+        <v>0.3106523651054493</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2900549335419051</v>
+        <v>0.2876797274342267</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1391147057106741</v>
+        <v>0.1376751362278207</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1480944943671732</v>
+        <v>0.1502608006207022</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1615021919368199</v>
+        <v>0.1579378197813368</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2402813007845725</v>
+        <v>0.2376410241671723</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1539111801870726</v>
+        <v>0.1553767657044183</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.21085468489181</v>
+        <v>0.2123851565886694</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2275826272957723</v>
+        <v>0.2270884638628844</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2576182817292498</v>
+        <v>0.2554529822320133</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1751065117409683</v>
+        <v>0.1758751839883358</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2504627694967823</v>
+        <v>0.2482622491676683</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.28755606650055</v>
+        <v>0.286843401587841</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2684794040362747</v>
+        <v>0.2608875264113349</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08524552547264425</v>
+        <v>0.08326570938793205</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1167881045711083</v>
+        <v>0.1169577399002256</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1709546041455922</v>
+        <v>0.171174134815764</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2071014816588918</v>
+        <v>0.207485912988481</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1346454107207282</v>
+        <v>0.1328341365434395</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1883403483944406</v>
+        <v>0.1890464623394512</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2339553887446065</v>
+        <v>0.2338865572042016</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2436926723428909</v>
+        <v>0.2444566203116057</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2279983205405866</v>
+        <v>0.230382245371777</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3090231148340206</v>
+        <v>0.3076284960507972</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3473871879594335</v>
+        <v>0.3465686964930968</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3295138105518092</v>
+        <v>0.3288234183414388</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1262174185980016</v>
+        <v>0.1229081865381333</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.16263059158829</v>
+        <v>0.161007383979209</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2219392940358372</v>
+        <v>0.2221985299288148</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2537972023109636</v>
+        <v>0.2546478397347841</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1690991451916243</v>
+        <v>0.1679830525141577</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2249236987666859</v>
+        <v>0.2267297866675697</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2733765239022982</v>
+        <v>0.2746844417537045</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2828012402485113</v>
+        <v>0.282322219039477</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2095154489403941</v>
+        <v>0.2097429108433087</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2303889625842768</v>
+        <v>0.2310305429804791</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2931455617303708</v>
+        <v>0.2951621761862093</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2863522385050627</v>
+        <v>0.2899636073869286</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1174081631886704</v>
+        <v>0.1151501959335967</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1382531685881252</v>
+        <v>0.1371345018946679</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1811350354754766</v>
+        <v>0.1793444531634157</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2111695741431002</v>
+        <v>0.2097090490880222</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1708327378707412</v>
+        <v>0.1703849327118584</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1917415694050734</v>
+        <v>0.1892685752959583</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2468099833414069</v>
+        <v>0.2419557423877574</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2560448315125074</v>
+        <v>0.2547449753966276</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2745083975006863</v>
+        <v>0.2813365017520713</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2983836721860308</v>
+        <v>0.2983733700180712</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3668320370536152</v>
+        <v>0.3663899199857401</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3624449218543996</v>
+        <v>0.3644976541419568</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1676528018091571</v>
+        <v>0.1665513912391133</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1943252091259544</v>
+        <v>0.1934499320956425</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2400338014234399</v>
+        <v>0.2390553379278035</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2663486634258322</v>
+        <v>0.2629448019250948</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.214609447676819</v>
+        <v>0.2146333571895095</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2355650330366059</v>
+        <v>0.234939115719781</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2924233131509491</v>
+        <v>0.2909161918172697</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3013476984166398</v>
+        <v>0.3008322267688449</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3663507425170965</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2825456529002378</v>
+        <v>0.2825456529002379</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1275210786179904</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2064588794061172</v>
+        <v>0.2081288125834383</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2656056548561114</v>
+        <v>0.2633475157009778</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3345884237350616</v>
+        <v>0.3361013482040121</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2530368450792037</v>
+        <v>0.2538412326888081</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1070614856277705</v>
+        <v>0.1078845580339285</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1431936194447309</v>
+        <v>0.1458108160250178</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1694789187864343</v>
+        <v>0.1674258379381788</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.160739317412971</v>
+        <v>0.1618614710286212</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1598719497344642</v>
+        <v>0.1615824046333577</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2106560515897329</v>
+        <v>0.2088064034846569</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2556577316383746</v>
+        <v>0.254844557490718</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.209521285819473</v>
+        <v>0.2082288680841675</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2615179250469445</v>
+        <v>0.2624519752185676</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3251351875908658</v>
+        <v>0.3252382070343146</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4000230461446697</v>
+        <v>0.3979238056786408</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.312892239954023</v>
+        <v>0.3150076427736019</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.14736182263445</v>
+        <v>0.1492049597190123</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1918970546939714</v>
+        <v>0.192913837572544</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2178442262278673</v>
+        <v>0.2188550467313472</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1989984876800237</v>
+        <v>0.1986055356238489</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1950878742110175</v>
+        <v>0.1944898113728641</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2481144002840948</v>
+        <v>0.2474818787462222</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2966169032158754</v>
+        <v>0.2950933793019638</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2437055280414122</v>
+        <v>0.2436214006706915</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1958365641918809</v>
+        <v>0.1952843169248216</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2595883940237142</v>
+        <v>0.2591049138428248</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3074225567402411</v>
+        <v>0.3081243214715554</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2737202525738075</v>
+        <v>0.2746993481724714</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.109053060470199</v>
+        <v>0.1090973331414669</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1357421046586758</v>
+        <v>0.1368470848236479</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1724319472236243</v>
+        <v>0.1725699404750387</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2007411011141239</v>
+        <v>0.2026867275632058</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1550996863601422</v>
+        <v>0.1544414848828004</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2007458088019214</v>
+        <v>0.1999451014447602</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2430876936929685</v>
+        <v>0.2433969676215574</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2404124601191513</v>
+        <v>0.240843491319718</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2271186095767112</v>
+        <v>0.2244198229764744</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2903251036280314</v>
+        <v>0.2897626282607512</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3408594057548477</v>
+        <v>0.3396611554445645</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3085987346379955</v>
+        <v>0.3082730506620581</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1315106159007011</v>
+        <v>0.1315458765563316</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1606414500622224</v>
+        <v>0.1616268289407285</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1990574410066433</v>
+        <v>0.1981540322572919</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2241494887440406</v>
+        <v>0.2254917476467959</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1728372152099309</v>
+        <v>0.1732065753526561</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2205233315218754</v>
+        <v>0.2200386313508385</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2644753057483317</v>
+        <v>0.2643077756885175</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2608009543547376</v>
+        <v>0.2606385048168437</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>91157</v>
+        <v>89379</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>155871</v>
+        <v>156015</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>164887</v>
+        <v>163158</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>152355</v>
+        <v>152796</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>61917</v>
+        <v>62237</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>67704</v>
+        <v>66573</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>75059</v>
+        <v>72554</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>140857</v>
+        <v>140506</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>162033</v>
+        <v>163827</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>234155</v>
+        <v>234215</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>246516</v>
+        <v>244327</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>305488</v>
+        <v>303116</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>128758</v>
+        <v>128349</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>203410</v>
+        <v>201988</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>210986</v>
+        <v>209628</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>200203</v>
+        <v>198564</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>95599</v>
+        <v>94610</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>103229</v>
+        <v>104739</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>108514</v>
+        <v>106119</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>176410</v>
+        <v>174471</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>212584</v>
+        <v>214608</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>295306</v>
+        <v>297449</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>306487</v>
+        <v>305821</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>366953</v>
+        <v>363869</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>168417</v>
+        <v>169157</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>254693</v>
+        <v>252455</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>293726</v>
+        <v>292998</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>281613</v>
+        <v>273649</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>82551</v>
+        <v>80634</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>120547</v>
+        <v>120722</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>178128</v>
+        <v>178356</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>221904</v>
+        <v>222316</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>259892</v>
+        <v>256396</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>385923</v>
+        <v>387370</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>482748</v>
+        <v>482605</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>516724</v>
+        <v>518344</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>219289</v>
+        <v>221582</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>314242</v>
+        <v>312824</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>354841</v>
+        <v>354005</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>345633</v>
+        <v>344908</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>122228</v>
+        <v>119023</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>167865</v>
+        <v>166189</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>231252</v>
+        <v>231522</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>271937</v>
+        <v>272849</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>326394</v>
+        <v>324240</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>460885</v>
+        <v>464586</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>564090</v>
+        <v>566789</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>599649</v>
+        <v>598633</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>142158</v>
+        <v>142312</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>174548</v>
+        <v>175034</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>221527</v>
+        <v>223051</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>229962</v>
+        <v>232862</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>79890</v>
+        <v>78353</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>107170</v>
+        <v>106303</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>141825</v>
+        <v>140423</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>171524</v>
+        <v>170338</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>232153</v>
+        <v>231545</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>293901</v>
+        <v>290110</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>379759</v>
+        <v>372290</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>413597</v>
+        <v>411498</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>186256</v>
+        <v>190889</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>226062</v>
+        <v>226055</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>277211</v>
+        <v>276877</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>291070</v>
+        <v>292718</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>114078</v>
+        <v>113329</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>150636</v>
+        <v>149957</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>187941</v>
+        <v>187175</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>216344</v>
+        <v>213579</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>291644</v>
+        <v>291676</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>361073</v>
+        <v>360114</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>449942</v>
+        <v>447623</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>486777</v>
+        <v>485944</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>194348</v>
+        <v>195920</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>251725</v>
+        <v>249585</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>312292</v>
+        <v>313704</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>250368</v>
+        <v>251164</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>111195</v>
+        <v>112050</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>150626</v>
+        <v>153379</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>176722</v>
+        <v>174581</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>179674</v>
+        <v>180928</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>316539</v>
+        <v>319925</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>421236</v>
+        <v>417538</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>505205</v>
+        <v>503598</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>441514</v>
+        <v>438790</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>246177</v>
+        <v>247057</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>308143</v>
+        <v>308241</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>373366</v>
+        <v>371407</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>309592</v>
+        <v>311685</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>153052</v>
+        <v>154966</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>201857</v>
+        <v>202926</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>227154</v>
+        <v>228208</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>222440</v>
+        <v>222000</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>386265</v>
+        <v>385080</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>496139</v>
+        <v>494875</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>586145</v>
+        <v>583134</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>513548</v>
+        <v>513371</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>641494</v>
+        <v>639685</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>889277</v>
+        <v>887621</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1040720</v>
+        <v>1043096</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>966689</v>
+        <v>970147</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>368015</v>
+        <v>368165</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>482741</v>
+        <v>486670</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>610337</v>
+        <v>610825</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>749910</v>
+        <v>757179</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1031461</v>
+        <v>1027083</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1401613</v>
+        <v>1396022</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1683356</v>
+        <v>1685497</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1747168</v>
+        <v>1750301</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>743964</v>
+        <v>735123</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>994572</v>
+        <v>992645</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1153914</v>
+        <v>1149858</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1089869</v>
+        <v>1088718</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>443802</v>
+        <v>443921</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>571290</v>
+        <v>574795</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>704580</v>
+        <v>701382</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>837357</v>
+        <v>842372</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1149421</v>
+        <v>1151877</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1539700</v>
+        <v>1536316</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1831462</v>
+        <v>1830302</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1895339</v>
+        <v>1894159</v>
       </c>
     </row>
     <row r="24">
